--- a/schedules/Varicella.xlsx
+++ b/schedules/Varicella.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>INVALID</t>
   </si>
   <si>
     <t>MMRV should not be administered to persons 13 years of age or older.</t>
@@ -998,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="28"/>
       <c r="F6" s="10" t="s">
@@ -1147,7 +1144,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="28">
         <v>-178</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="12"/>
@@ -1550,7 +1547,7 @@
         <v>44</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -1679,28 +1676,28 @@
         <v>8</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C82" s="9">
         <v>1</v>
@@ -1708,7 +1705,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" s="9">
         <v>1</v>
@@ -1723,7 +1720,7 @@
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -1779,7 +1776,7 @@
         <v>41</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -1789,7 +1786,7 @@
         <v>42</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -1891,10 +1888,10 @@
         <v>53</v>
       </c>
       <c r="F101" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
@@ -1902,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="23"/>
@@ -1914,7 +1911,7 @@
         <v>8</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>57</v>
@@ -1928,28 +1925,28 @@
         <v>8</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C106" s="9">
         <v>2</v>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C107" s="9">
         <v>1</v>
@@ -1972,7 +1969,7 @@
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
@@ -2138,10 +2135,10 @@
         <v>53</v>
       </c>
       <c r="F125" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
@@ -2149,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="23"/>
@@ -2159,28 +2156,28 @@
         <v>8</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C129" s="9">
         <v>2</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C130" s="9">
         <v>2</v>
@@ -2197,6 +2194,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B120:D120"/>
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="B71:D71"/>
@@ -2205,13 +2209,6 @@
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B111:E111"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2234,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:A55"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2366,7 +2363,7 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B80&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D80&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E80&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="INVALID" age="" reason="MMRV should not be administered to persons 13 years of age or older."/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="P2" age="" reason="MMRV should not be administered to persons 13 years of age or older."/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -2462,7 +2459,7 @@
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B104&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E104&amp;CHAR(34)&amp;" previousVaccineName="&amp;CHAR(34)&amp;Schedules!G104&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!F104&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="INVALID" age="" reason="MMRV should not be administered to persons 13 years of age or older." previousVaccineName="" minInterval=""/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="COMPLETE" age="" reason="MMRV should not be administered to persons 13 years of age or older." previousVaccineName="" minInterval=""/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -2552,7 +2549,7 @@
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B127&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E127&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="INVALID" age="" reason="MMRV should not be administered to persons 13 years of age or older."/&gt;</v>
+        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="COMPLETE" age="" reason="MMRV should not be administered to persons 13 years of age or older."/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">

--- a/schedules/Varicella.xlsx
+++ b/schedules/Varicella.xlsx
@@ -468,10 +468,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1093,13 +1093,13 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="27"/>
       <c r="F6" s="10" t="s">
         <v>1</v>
       </c>
@@ -1111,9 +1111,9 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1128,10 +1128,10 @@
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="27"/>
       <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1146,10 +1146,10 @@
       <c r="B9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>-178</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="27"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
@@ -2194,13 +2194,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B120:D120"/>
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="B71:D71"/>
@@ -2209,6 +2202,13 @@
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F10:J10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedules/Varicella.xlsx
+++ b/schedules/Varicella.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\forecast\forecaster2012\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\forecast\forecaster\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="368"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="368"/>
   </bookViews>
   <sheets>
     <sheet name="Schedules" sheetId="1" r:id="rId1"/>
@@ -995,32 +995,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:F73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5703125" style="1"/>
-    <col min="17" max="17" width="6.28515625" style="1" customWidth="1"/>
-    <col min="18" max="22" width="11.5703125" style="1"/>
-    <col min="23" max="23" width="6.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.28515625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5703125" style="1"/>
+    <col min="9" max="9" width="11.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="1" customWidth="1"/>
+    <col min="13" max="16" width="11.5546875" style="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="22" width="11.5546875" style="1"/>
+    <col min="23" max="23" width="6.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1124,7 +1124,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>69</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10" s="26" t="s">
         <v>15</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11" s="7" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15" s="10" t="s">
         <v>19</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F16" s="10" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" s="10" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="10" t="s">
         <v>71</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" s="10" t="s">
         <v>24</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" s="10" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="10" t="s">
         <v>26</v>
       </c>
@@ -1329,135 +1329,135 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>31</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
         <v>33</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
       <c r="C63" s="6" t="s">
         <v>34</v>
@@ -1502,7 +1502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
         <v>37</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="20" t="s">
         <v>40</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
         <v>41</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="20" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="20" t="s">
         <v>44</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>49</v>
       </c>
@@ -1570,14 +1570,14 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>12</v>
       </c>
@@ -1616,14 +1616,14 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="E77" s="23"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="D78" s="9"/>
       <c r="E78" s="23"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>8</v>
       </c>
@@ -1671,19 +1671,19 @@
       </c>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>69</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="20" t="s">
         <v>60</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="20" t="s">
         <v>61</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>27</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>56</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="26" t="s">
         <v>33</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
       <c r="C88" s="6" t="s">
         <v>34</v>
@@ -1751,7 +1751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="20" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="20" t="s">
         <v>40</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="20" t="s">
         <v>41</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="20" t="s">
         <v>42</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="20" t="s">
         <v>44</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="21" t="s">
         <v>46</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="21" t="s">
         <v>49</v>
       </c>
@@ -1821,14 +1821,14 @@
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>12</v>
       </c>
@@ -1867,14 +1867,14 @@
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>4</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="F103" s="23"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>8</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
         <v>69</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
         <v>60</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
         <v>61</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>27</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
         <v>58</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="26" t="s">
         <v>33</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="6" t="s">
         <v>34</v>
@@ -2000,7 +2000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
         <v>37</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="20" t="s">
         <v>40</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="20" t="s">
         <v>41</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="20" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="20" t="s">
         <v>44</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="21" t="s">
         <v>46</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
         <v>49</v>
       </c>
@@ -2068,14 +2068,14 @@
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>12</v>
       </c>
@@ -2114,14 +2114,14 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C124" s="26"/>
       <c r="D124" s="26"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
         <v>4</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="D126" s="9"/>
       <c r="E126" s="23"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="9" t="s">
         <v>8</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
         <v>69</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="20" t="s">
         <v>60</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="20" t="s">
         <v>61</v>
       </c>
@@ -2194,6 +2194,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="B120:D120"/>
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="B71:D71"/>
@@ -2202,13 +2209,6 @@
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F10:J10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,340 +2231,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.28515625" customWidth="1"/>
+    <col min="1" max="1" width="106.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="str">
         <f>"&lt;forecast seriesName="&amp;CHAR(34)&amp;Schedules!D2&amp;CHAR(34)&amp;"&gt;"</f>
         <v>&lt;forecast seriesName="Varicella"&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="Single" vaccineIds="178"/&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B5&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C5&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="MMRV" vaccineIds="159, 1560"/&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="Same Live" vaccineIds="160, 161, 158, 162, 171, 175, 180, 2020, 1990, 148, 203"/&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B8&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C8&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="Other Live" vaccineIds="1690, 1700, 210"/&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B9&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C9&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">  &lt;vaccine vaccineName="Assume Comp" vaccineIds="-178"/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B61&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C61&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D61&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E60&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P1" dose="1" indication="NO-VAR-HIS" label="1 year"&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C83&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C82&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="1"/&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C64&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D64&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E64&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="12 months" interval="" grace="4 days"/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C65&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D65&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E65&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C66&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D66&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E66&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="12 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C67&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D67&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E67&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="16 months" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C68&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D68&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E68&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="19 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D69&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E69&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D70&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B73&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C73&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D73&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E73&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F73&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Same Live" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B74&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C74&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D74&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E74&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F74&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Other Live" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B77&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C77&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D77&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E77&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Single" schedule="P2" age="13 years" reason=""/&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B78&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C78&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D78&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E78&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Single" schedule="A2" age="" reason=""/&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B79&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C79&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D79&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E79&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="P2" age="13 years" reason=""/&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B80&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C80&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D80&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E80&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="P2" age="" reason="MMRV should not be administered to persons 13 years of age or older."/&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="A2" age="" reason="MMRV should not be administered to persons 13 years of age or older."/&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B81&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C81&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D81&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E81&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Assume Comp" schedule="COMPLETE" age="" reason="Assuming adult received full Varicella series as a child or is immune."/&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B86&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C86&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D86&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E85&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="P2" dose="2" indication="" label="4 years"&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C107&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C106&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="1" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C89&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D89&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E89&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="" interval="12 weeks" grace="8 weeks"/&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C90&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D90&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E90&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C91&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D91&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E91&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="4 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C92&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D92&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E92&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="7 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C93&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D93&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E93&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D94&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E94&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="12 weeks" grace="8 weeks"/&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D95&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B98&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C98&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D98&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E98&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F98&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Same Live" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B99&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C99&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D99&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E99&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F99&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Other Live" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B102&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C102&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D102&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E102&amp;CHAR(34)&amp;" previousVaccineName="&amp;CHAR(34)&amp;Schedules!G102&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!F102&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Single" schedule="COMPLETE" age="" reason="" previousVaccineName="" minInterval=""/&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B103&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C103&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D103&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E103&amp;CHAR(34)&amp;" previousVaccineName="&amp;CHAR(34)&amp;Schedules!G103&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!F103&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="COMPLETE" age="13 years" reason="" previousVaccineName="" minInterval=""/&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B104&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C104&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D104&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E104&amp;CHAR(34)&amp;" previousVaccineName="&amp;CHAR(34)&amp;Schedules!G104&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!F104&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="COMPLETE" age="" reason="MMRV should not be administered to persons 13 years of age or older." previousVaccineName="" minInterval=""/&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B105&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C105&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D105&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E105&amp;CHAR(34)&amp;" previousVaccineName="&amp;CHAR(34)&amp;Schedules!G105&amp;CHAR(34)&amp;" minInterval="&amp;CHAR(34)&amp;Schedules!F105&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Assume Comp" schedule="COMPLETE" age="" reason="Assuming adult received full Varicella series as a child or is immune." previousVaccineName="" minInterval=""/&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="str">
         <f>"  &lt;schedule scheduleName="&amp;CHAR(34)&amp;Schedules!B110&amp;CHAR(34)&amp;" dose="&amp;CHAR(34)&amp;Schedules!C110&amp;CHAR(34)&amp;" indication="&amp;CHAR(34)&amp;Schedules!D110&amp;CHAR(34)&amp;" label="&amp;CHAR(34)&amp;Schedules!E109&amp;CHAR(34)&amp;"&gt;"</f>
         <v xml:space="preserve">  &lt;schedule scheduleName="A2" dose="2" indication="" label="13 years +"&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="str">
         <f>"    &lt;pos row="&amp;CHAR(34)&amp;Schedules!C130&amp;CHAR(34)&amp;" column="&amp;CHAR(34)&amp;Schedules!C129&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;pos row="2" column="2"/&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="str">
         <f>"    &lt;valid age="&amp;CHAR(34)&amp;Schedules!C113&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D113&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E113&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;valid age="" interval="4 weeks" grace="4 days"/&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="str">
         <f>"    &lt;early age="&amp;CHAR(34)&amp;Schedules!C114&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D114&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E114&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;early age="" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="str">
         <f>"    &lt;due age="&amp;CHAR(34)&amp;Schedules!C115&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D115&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E115&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;due age="13 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="str">
         <f>"    &lt;overdue age="&amp;CHAR(34)&amp;Schedules!C116&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D116&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E116&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;overdue age="13 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="str">
         <f>"    &lt;finished age="&amp;CHAR(34)&amp;Schedules!C117&amp;CHAR(34)&amp;" interval="&amp;CHAR(34)&amp;Schedules!D117&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E117&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;finished age="65 years" interval="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="str">
         <f>"    &lt;after-invalid interval="&amp;CHAR(34)&amp;Schedules!D118&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!E118&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;after-invalid interval="4 weeks" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="str">
         <f>"    &lt;before-previous interval="&amp;CHAR(34)&amp;Schedules!D119&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;before-previous interval=""/&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B122&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C122&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D122&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E122&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F122&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Same Live" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="str">
         <f>"    &lt;contraindicate vaccineName="&amp;CHAR(34)&amp;Schedules!B123&amp;CHAR(34)&amp;" afterInterval="&amp;CHAR(34)&amp;Schedules!C123&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D123&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E123&amp;CHAR(34)&amp;" grace="&amp;CHAR(34)&amp;Schedules!F123&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;contraindicate vaccineName="Other Live" afterInterval="4 weeks" age="" reason="" grace=""/&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B126&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C126&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D126&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E126&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Single" schedule="COMPLETE" age="" reason=""/&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B127&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C127&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D127&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E127&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="MMRV" schedule="COMPLETE" age="" reason="MMRV should not be administered to persons 13 years of age or older."/&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="str">
         <f>"    &lt;indicate vaccineName="&amp;CHAR(34)&amp;Schedules!B128&amp;CHAR(34)&amp;" schedule="&amp;CHAR(34)&amp;Schedules!C128&amp;CHAR(34)&amp;" age="&amp;CHAR(34)&amp;Schedules!D128&amp;CHAR(34)&amp;" reason="&amp;CHAR(34)&amp;Schedules!E128&amp;CHAR(34)&amp;"/&gt;"</f>
         <v xml:space="preserve">    &lt;indicate vaccineName="Assume Comp" schedule="COMPLETE" age="" reason="Assuming adult received full Varicella series as a child or is immune."/&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="str">
         <f>"  &lt;/schedule&gt;"</f>
         <v xml:space="preserve">  &lt;/schedule&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="str">
         <f>"&lt;/forecast&gt;"</f>
         <v>&lt;/forecast&gt;</v>
